--- a/数据扩充/Atomic/PICTURE.xlsx
+++ b/数据扩充/Atomic/PICTURE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuyouyu/WorkSpace/Lab106/106Lab_Project/数据扩充/Atomic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E279205-82EF-CA42-814F-A74021506B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487DBEEC-903E-1048-85B3-E05FE6EB5494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="13680" windowWidth="28800" windowHeight="12680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
   <si>
     <t>AN1</t>
   </si>
@@ -302,13 +302,17 @@
   </si>
   <si>
     <t>LPd</t>
+  </si>
+  <si>
+    <t>zeros</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +322,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -346,8 +358,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,7 +643,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -973,23 +988,23 @@
       <c r="D11" t="s">
         <v>93</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+      <c r="E11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
